--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.122044</v>
+        <v>26.86490966666667</v>
       </c>
       <c r="H2">
-        <v>15.366132</v>
+        <v>80.594729</v>
       </c>
       <c r="I2">
-        <v>0.0387196063811631</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="J2">
-        <v>0.03871960638116309</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N2">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O2">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P2">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q2">
-        <v>17.614236380604</v>
+        <v>38.76270653529166</v>
       </c>
       <c r="R2">
-        <v>158.528127425436</v>
+        <v>348.864358817625</v>
       </c>
       <c r="S2">
-        <v>0.002255580600111812</v>
+        <v>0.002963922665684371</v>
       </c>
       <c r="T2">
-        <v>0.002255580600111811</v>
+        <v>0.002963922665684371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.122044</v>
+        <v>26.86490966666667</v>
       </c>
       <c r="H3">
-        <v>15.366132</v>
+        <v>80.594729</v>
       </c>
       <c r="I3">
-        <v>0.0387196063811631</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="J3">
-        <v>0.03871960638116309</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q3">
-        <v>53.18657244370799</v>
+        <v>278.9613802965844</v>
       </c>
       <c r="R3">
-        <v>478.6791519933719</v>
+        <v>2510.652422669259</v>
       </c>
       <c r="S3">
-        <v>0.006810775011658809</v>
+        <v>0.0213302948069135</v>
       </c>
       <c r="T3">
-        <v>0.006810775011658808</v>
+        <v>0.0213302948069135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.122044</v>
+        <v>26.86490966666667</v>
       </c>
       <c r="H4">
-        <v>15.366132</v>
+        <v>80.594729</v>
       </c>
       <c r="I4">
-        <v>0.0387196063811631</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="J4">
-        <v>0.03871960638116309</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N4">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q4">
-        <v>101.77101054894</v>
+        <v>750.463702498717</v>
       </c>
       <c r="R4">
-        <v>915.9390949404599</v>
+        <v>6754.173322488454</v>
       </c>
       <c r="S4">
-        <v>0.01303222643819727</v>
+        <v>0.05738289651121813</v>
       </c>
       <c r="T4">
-        <v>0.01303222643819727</v>
+        <v>0.05738289651121813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.122044</v>
+        <v>26.86490966666667</v>
       </c>
       <c r="H5">
-        <v>15.366132</v>
+        <v>80.594729</v>
       </c>
       <c r="I5">
-        <v>0.0387196063811631</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="J5">
-        <v>0.03871960638116309</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N5">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q5">
-        <v>129.79658161758</v>
+        <v>824.6207126005646</v>
       </c>
       <c r="R5">
-        <v>1168.16923455822</v>
+        <v>7421.586413405082</v>
       </c>
       <c r="S5">
-        <v>0.0166210243311952</v>
+        <v>0.06305318279167012</v>
       </c>
       <c r="T5">
-        <v>0.0166210243311952</v>
+        <v>0.06305318279167012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>227.042794</v>
       </c>
       <c r="I6">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324291</v>
       </c>
       <c r="J6">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324292</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N6">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O6">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P6">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q6">
-        <v>260.2597349826735</v>
+        <v>109.1981237975833</v>
       </c>
       <c r="R6">
-        <v>2342.337614844062</v>
+        <v>982.78311417825</v>
       </c>
       <c r="S6">
-        <v>0.03332740611245449</v>
+        <v>0.008349643848506614</v>
       </c>
       <c r="T6">
-        <v>0.03332740611245449</v>
+        <v>0.008349643848506614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>227.042794</v>
       </c>
       <c r="I7">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324291</v>
       </c>
       <c r="J7">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324292</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q7">
-        <v>785.8599685921525</v>
+        <v>785.8599685921528</v>
       </c>
       <c r="R7">
-        <v>7072.739717329374</v>
+        <v>7072.739717329375</v>
       </c>
       <c r="S7">
-        <v>0.1006328325145455</v>
+        <v>0.06008941018717655</v>
       </c>
       <c r="T7">
-        <v>0.1006328325145455</v>
+        <v>0.06008941018717654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>227.042794</v>
       </c>
       <c r="I8">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324291</v>
       </c>
       <c r="J8">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N8">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q8">
-        <v>1503.720948332008</v>
+        <v>2114.125550454962</v>
       </c>
       <c r="R8">
-        <v>13533.48853498807</v>
+        <v>19027.12995409466</v>
       </c>
       <c r="S8">
-        <v>0.192558094813254</v>
+        <v>0.1616529184150469</v>
       </c>
       <c r="T8">
-        <v>0.192558094813254</v>
+        <v>0.1616529184150469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>227.042794</v>
       </c>
       <c r="I9">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324291</v>
       </c>
       <c r="J9">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N9">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q9">
-        <v>1917.813704978221</v>
+        <v>2323.032695836761</v>
       </c>
       <c r="R9">
-        <v>17260.32334480399</v>
+        <v>20907.29426253085</v>
       </c>
       <c r="S9">
-        <v>0.2455844973410707</v>
+        <v>0.177626638481699</v>
       </c>
       <c r="T9">
-        <v>0.2455844973410707</v>
+        <v>0.177626638481699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.473618</v>
+        <v>14.45399366666666</v>
       </c>
       <c r="H10">
-        <v>31.42085399999999</v>
+        <v>43.36198099999999</v>
       </c>
       <c r="I10">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="J10">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N10">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O10">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P10">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q10">
-        <v>36.01780523793799</v>
+        <v>20.85530611179166</v>
       </c>
       <c r="R10">
-        <v>324.1602471414419</v>
+        <v>187.697755006125</v>
       </c>
       <c r="S10">
-        <v>0.004612238702709675</v>
+        <v>0.001594664563173542</v>
       </c>
       <c r="T10">
-        <v>0.004612238702709674</v>
+        <v>0.001594664563173542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.473618</v>
+        <v>14.45399366666666</v>
       </c>
       <c r="H11">
-        <v>31.42085399999999</v>
+        <v>43.36198099999999</v>
       </c>
       <c r="I11">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="J11">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q11">
-        <v>108.756551584626</v>
+        <v>150.0882033135723</v>
       </c>
       <c r="R11">
-        <v>978.8089642616337</v>
+        <v>1350.793829822151</v>
       </c>
       <c r="S11">
-        <v>0.01392675575533125</v>
+        <v>0.01147623237422614</v>
       </c>
       <c r="T11">
-        <v>0.01392675575533125</v>
+        <v>0.01147623237422613</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.473618</v>
+        <v>14.45399366666666</v>
       </c>
       <c r="H12">
-        <v>31.42085399999999</v>
+        <v>43.36198099999999</v>
       </c>
       <c r="I12">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="J12">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N12">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q12">
-        <v>208.10260278193</v>
+        <v>403.768251506113</v>
       </c>
       <c r="R12">
-        <v>1872.92342503737</v>
+        <v>3633.914263555017</v>
       </c>
       <c r="S12">
-        <v>0.02664845546097979</v>
+        <v>0.03087343426943475</v>
       </c>
       <c r="T12">
-        <v>0.02664845546097979</v>
+        <v>0.03087343426943475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.473618</v>
+        <v>14.45399366666666</v>
       </c>
       <c r="H13">
-        <v>31.42085399999999</v>
+        <v>43.36198099999999</v>
       </c>
       <c r="I13">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="J13">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N13">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q13">
-        <v>265.4096320860099</v>
+        <v>443.6665786417886</v>
       </c>
       <c r="R13">
-        <v>2388.686688774089</v>
+        <v>3992.999207776097</v>
       </c>
       <c r="S13">
-        <v>0.03398687313378097</v>
+        <v>0.03392419018124531</v>
       </c>
       <c r="T13">
-        <v>0.03398687313378097</v>
+        <v>0.0339241901812453</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.00894566666667</v>
+        <v>68.62066266666666</v>
       </c>
       <c r="H14">
-        <v>123.026837</v>
+        <v>205.861988</v>
       </c>
       <c r="I14">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="J14">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N14">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O14">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P14">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q14">
-        <v>141.0259776550168</v>
+        <v>99.01103864516665</v>
       </c>
       <c r="R14">
-        <v>1269.233798895151</v>
+        <v>891.0993478065</v>
       </c>
       <c r="S14">
-        <v>0.01805899798533021</v>
+        <v>0.00757070617156668</v>
       </c>
       <c r="T14">
-        <v>0.01805899798533021</v>
+        <v>0.00757070617156668</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.00894566666667</v>
+        <v>68.62066266666666</v>
       </c>
       <c r="H15">
-        <v>123.026837</v>
+        <v>205.861988</v>
       </c>
       <c r="I15">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="J15">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q15">
-        <v>425.8310275234363</v>
+        <v>712.5471483759053</v>
       </c>
       <c r="R15">
-        <v>3832.479247710927</v>
+        <v>6412.924335383148</v>
       </c>
       <c r="S15">
-        <v>0.05452953984796053</v>
+        <v>0.0544836734121569</v>
       </c>
       <c r="T15">
-        <v>0.05452953984796053</v>
+        <v>0.05448367341215689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.00894566666667</v>
+        <v>68.62066266666666</v>
       </c>
       <c r="H16">
-        <v>123.026837</v>
+        <v>205.861988</v>
       </c>
       <c r="I16">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="J16">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N16">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q16">
-        <v>814.8156950708039</v>
+        <v>1916.898929187124</v>
       </c>
       <c r="R16">
-        <v>7333.341255637235</v>
+        <v>17252.09036268412</v>
       </c>
       <c r="S16">
-        <v>0.1043407409072879</v>
+        <v>0.1465723292276053</v>
       </c>
       <c r="T16">
-        <v>0.1043407409072879</v>
+        <v>0.1465723292276053</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.00894566666667</v>
+        <v>68.62066266666666</v>
       </c>
       <c r="H17">
-        <v>123.026837</v>
+        <v>205.861988</v>
       </c>
       <c r="I17">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="J17">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N17">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q17">
-        <v>1039.198601822711</v>
+        <v>2106.317141930323</v>
       </c>
       <c r="R17">
-        <v>9352.787416404395</v>
+        <v>18956.8542773729</v>
       </c>
       <c r="S17">
-        <v>0.1330739610441318</v>
+        <v>0.1610558620926761</v>
       </c>
       <c r="T17">
-        <v>0.1330739610441318</v>
+        <v>0.1610558620926761</v>
       </c>
     </row>
   </sheetData>
